--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
   <si>
     <t>Create citizenship from excel</t>
   </si>
@@ -39,6 +39,75 @@
   </si>
   <si>
     <t>16_12_22170310</t>
+  </si>
+  <si>
+    <t>Login with valid username and password</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>19_12_22112128</t>
+  </si>
+  <si>
+    <t>19_12_22112603</t>
+  </si>
+  <si>
+    <t>19_12_22112649</t>
+  </si>
+  <si>
+    <t>19_12_22112735</t>
+  </si>
+  <si>
+    <t>19_12_22112820</t>
+  </si>
+  <si>
+    <t>19_12_22112935</t>
+  </si>
+  <si>
+    <t>19_12_22113020</t>
+  </si>
+  <si>
+    <t>19_12_22113105</t>
+  </si>
+  <si>
+    <t>19_12_22113150</t>
+  </si>
+  <si>
+    <t>19_12_22113617</t>
+  </si>
+  <si>
+    <t>19_12_22113704</t>
+  </si>
+  <si>
+    <t>19_12_22113748</t>
+  </si>
+  <si>
+    <t>19_12_22113833</t>
+  </si>
+  <si>
+    <t>28_12_22162108</t>
+  </si>
+  <si>
+    <t>States testing with JDBC</t>
+  </si>
+  <si>
+    <t>28_12_22171551</t>
+  </si>
+  <si>
+    <t>28_12_22171952</t>
+  </si>
+  <si>
+    <t>28_12_22172053</t>
+  </si>
+  <si>
+    <t>28_12_22183424</t>
+  </si>
+  <si>
+    <t>28_12_22185421</t>
+  </si>
+  <si>
+    <t>28_12_22185559</t>
   </si>
 </sst>
 </file>
@@ -83,7 +152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -145,6 +214,286 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="35">
   <si>
     <t>Create citizenship from excel</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>28_12_22185559</t>
+  </si>
+  <si>
+    <t>17_01_23203535</t>
+  </si>
+  <si>
+    <t>Create Country</t>
+  </si>
+  <si>
+    <t>17_01_23203623</t>
   </si>
 </sst>
 </file>
@@ -152,7 +161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -494,6 +503,34 @@
         <v>31</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="37">
   <si>
     <t>Create citizenship from excel</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>17_01_23203623</t>
+  </si>
+  <si>
+    <t>17_01_23212116</t>
+  </si>
+  <si>
+    <t>17_01_23212203</t>
   </si>
 </sst>
 </file>
@@ -161,7 +167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -531,6 +537,34 @@
         <v>34</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
